--- a/Documentatie/BIG O ANALYESE.xlsx
+++ b/Documentatie/BIG O ANALYESE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\NHL Stenden HBO-ICT\Software engineering 2 2019-2018\Periode 2\Project\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6049F5-C147-4C76-8EAF-825AEF594C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7F3C7-5C3B-48BA-AF66-6190E755FB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{7997F03E-750E-492B-98ED-1C937CA2CB74}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>What</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>damage all tanks within loop</t>
-  </si>
-  <si>
-    <t>"swarm"funciton</t>
   </si>
 </sst>
 </file>
@@ -490,7 +487,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,18 +693,6 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
